--- a/results/mp/tinybert/home-spam/confidence/126/stop-words-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/126/stop-words-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="146">
   <si>
     <t>anchor score</t>
   </si>
@@ -79,31 +79,52 @@
     <t>excellent</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>beautifully</t>
   </si>
   <si>
-    <t>awesome</t>
+    <t>beautiful</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>favorite</t>
   </si>
   <si>
     <t>fantastic</t>
   </si>
   <si>
-    <t>favorite</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>pleased</t>
+    <t>best</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>best</t>
+    <t>wedding</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>son</t>
   </si>
   <si>
     <t>perfect</t>
@@ -112,334 +133,319 @@
     <t>cakes</t>
   </si>
   <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>apples</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>everyday</t>
+  </si>
+  <si>
+    <t>handy</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>mas</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
     <t>glad</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>wedding</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>son</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>potatoes</t>
+    <t>cooks</t>
   </si>
   <si>
     <t>cooke</t>
   </si>
   <si>
-    <t>rice</t>
+    <t>bun</t>
+  </si>
+  <si>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>ever</t>
   </si>
   <si>
     <t>perfectly</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>bun</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>sturdy</t>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>fun</t>
+  </si>
+  <si>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>cookies</t>
   </si>
   <si>
     <t>bread</t>
   </si>
   <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>mas</t>
-  </si>
-  <si>
-    <t>handy</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>cooks</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>powerful</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>fresh</t>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>nicely</t>
+  </si>
+  <si>
+    <t>cream</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>dough</t>
+  </si>
+  <si>
+    <t>day</t>
   </si>
   <si>
     <t>popcorn</t>
   </si>
   <si>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
     <t>home</t>
   </si>
   <si>
-    <t>pop</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>cream</t>
-  </si>
-  <si>
     <t>cooking</t>
   </si>
   <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
     <t>baking</t>
   </si>
   <si>
-    <t>hen</t>
-  </si>
-  <si>
-    <t>cookies</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>super</t>
-  </si>
-  <si>
-    <t>nicely</t>
-  </si>
-  <si>
-    <t>cook</t>
-  </si>
-  <si>
     <t>kitchen</t>
   </si>
   <si>
     <t>tea</t>
   </si>
   <si>
+    <t>keeps</t>
+  </si>
+  <si>
     <t>always</t>
   </si>
   <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>fan</t>
+  </si>
+  <si>
+    <t>quick</t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>ice</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>amazon</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>peel</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
     <t>gr</t>
   </si>
   <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>fan</t>
-  </si>
-  <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>pan</t>
+    <t>exactly</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>brand</t>
+  </si>
+  <si>
+    <t>bowl</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>every</t>
   </si>
   <si>
     <t>far</t>
   </si>
   <si>
-    <t>easier</t>
+    <t>making</t>
+  </si>
+  <si>
+    <t>maker</t>
   </si>
   <si>
     <t>dish</t>
   </si>
   <si>
-    <t>ice</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>exactly</t>
-  </si>
-  <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
     <t>many</t>
   </si>
   <si>
-    <t>amazon</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>making</t>
-  </si>
-  <si>
-    <t>maker</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
     <t>recommend</t>
   </si>
   <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>anyone</t>
-  </si>
-  <si>
-    <t>every</t>
+    <t>last</t>
+  </si>
+  <si>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>hot</t>
   </si>
   <si>
     <t>worth</t>
   </si>
   <si>
+    <t>cup</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>job</t>
+  </si>
+  <si>
+    <t>ox</t>
+  </si>
+  <si>
     <t>make</t>
   </si>
   <si>
-    <t>brand</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>cup</t>
-  </si>
-  <si>
-    <t>fast</t>
-  </si>
-  <si>
-    <t>big</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>lot</t>
-  </si>
-  <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>purchased</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>quality</t>
+    <t>really</t>
+  </si>
+  <si>
+    <t>long</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>pot</t>
-  </si>
-  <si>
-    <t>job</t>
-  </si>
-  <si>
-    <t>got</t>
+    <t>one</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>made</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
     <t>item</t>
   </si>
   <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
     <t>used</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>made</t>
   </si>
   <si>
     <t>product</t>
@@ -803,7 +809,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q128"/>
+  <dimension ref="A1:Q130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -814,7 +820,7 @@
         <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -872,13 +878,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.896551724137931</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C3">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -890,19 +896,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K3">
-        <v>0.9655172413793104</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -914,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -922,13 +928,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7037037037037037</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C4">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -940,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K4">
-        <v>0.9354838709677419</v>
+        <v>0.956989247311828</v>
       </c>
       <c r="L4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -964,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -972,25 +978,25 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.425</v>
+        <v>0.575</v>
       </c>
       <c r="C5">
+        <v>23</v>
+      </c>
+      <c r="D5">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>17</v>
-      </c>
-      <c r="D5">
-        <v>17</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>23</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>19</v>
@@ -1022,13 +1028,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3207547169811321</v>
+        <v>0.3396226415094339</v>
       </c>
       <c r="C6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1040,19 +1046,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K6">
-        <v>0.8984375</v>
+        <v>0.8828125</v>
       </c>
       <c r="L6">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M6">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1064,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1072,13 +1078,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.310077519379845</v>
+        <v>0.2790697674418605</v>
       </c>
       <c r="C7">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D7">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1090,19 +1096,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K7">
-        <v>0.8947368421052632</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L7">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="M7">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1114,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1122,13 +1128,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.2435897435897436</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="C8">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D8">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1140,19 +1146,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K8">
-        <v>0.8913043478260869</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="L8">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="M8">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1164,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1172,13 +1178,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.2323232323232323</v>
+        <v>0.202020202020202</v>
       </c>
       <c r="C9">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1190,19 +1196,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K9">
-        <v>0.8846153846153846</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="L9">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="M9">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1214,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1222,13 +1228,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1351351351351351</v>
+        <v>0.145945945945946</v>
       </c>
       <c r="C10">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1240,19 +1246,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K10">
-        <v>0.85</v>
+        <v>0.8343653250773994</v>
       </c>
       <c r="L10">
-        <v>17</v>
+        <v>539</v>
       </c>
       <c r="M10">
-        <v>17</v>
+        <v>539</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1264,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1272,13 +1278,13 @@
         <v>25</v>
       </c>
       <c r="K11">
-        <v>0.8359133126934984</v>
+        <v>0.7532467532467533</v>
       </c>
       <c r="L11">
-        <v>540</v>
+        <v>58</v>
       </c>
       <c r="M11">
-        <v>540</v>
+        <v>58</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1290,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>106</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1298,13 +1304,13 @@
         <v>26</v>
       </c>
       <c r="K12">
-        <v>0.7922077922077922</v>
+        <v>0.75</v>
       </c>
       <c r="L12">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="M12">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1316,7 +1322,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1324,13 +1330,13 @@
         <v>27</v>
       </c>
       <c r="K13">
-        <v>0.7333333333333333</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="L13">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="M13">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1342,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1350,13 +1356,13 @@
         <v>28</v>
       </c>
       <c r="K14">
-        <v>0.7045454545454546</v>
+        <v>0.7229437229437229</v>
       </c>
       <c r="L14">
-        <v>31</v>
+        <v>167</v>
       </c>
       <c r="M14">
-        <v>31</v>
+        <v>167</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1368,7 +1374,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>13</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1376,13 +1382,13 @@
         <v>29</v>
       </c>
       <c r="K15">
-        <v>0.6926406926406926</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="L15">
-        <v>160</v>
+        <v>32</v>
       </c>
       <c r="M15">
-        <v>160</v>
+        <v>32</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1394,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>71</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1402,13 +1408,13 @@
         <v>30</v>
       </c>
       <c r="K16">
-        <v>0.6644067796610169</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L16">
-        <v>196</v>
+        <v>18</v>
       </c>
       <c r="M16">
-        <v>196</v>
+        <v>18</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1420,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>99</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1428,13 +1434,13 @@
         <v>31</v>
       </c>
       <c r="K17">
-        <v>0.65625</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L17">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M17">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1446,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1454,13 +1460,13 @@
         <v>32</v>
       </c>
       <c r="K18">
-        <v>0.6458333333333334</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L18">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="M18">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1472,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1480,13 +1486,13 @@
         <v>33</v>
       </c>
       <c r="K19">
-        <v>0.6380417335473515</v>
+        <v>0.6514285714285715</v>
       </c>
       <c r="L19">
-        <v>795</v>
+        <v>114</v>
       </c>
       <c r="M19">
-        <v>795</v>
+        <v>114</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1498,7 +1504,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>451</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1506,13 +1512,13 @@
         <v>34</v>
       </c>
       <c r="K20">
-        <v>0.6338028169014085</v>
+        <v>0.6500802568218299</v>
       </c>
       <c r="L20">
-        <v>45</v>
+        <v>810</v>
       </c>
       <c r="M20">
-        <v>45</v>
+        <v>810</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1524,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>26</v>
+        <v>436</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1532,13 +1538,13 @@
         <v>35</v>
       </c>
       <c r="K21">
-        <v>0.6326530612244898</v>
+        <v>0.6438356164383562</v>
       </c>
       <c r="L21">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="M21">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1550,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1558,13 +1564,13 @@
         <v>36</v>
       </c>
       <c r="K22">
-        <v>0.631578947368421</v>
+        <v>0.6410256410256411</v>
       </c>
       <c r="L22">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="M22">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1576,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1584,13 +1590,13 @@
         <v>37</v>
       </c>
       <c r="K23">
-        <v>0.6301369863013698</v>
+        <v>0.6406779661016949</v>
       </c>
       <c r="L23">
-        <v>46</v>
+        <v>189</v>
       </c>
       <c r="M23">
-        <v>46</v>
+        <v>189</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1602,7 +1608,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>27</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1610,13 +1616,13 @@
         <v>38</v>
       </c>
       <c r="K24">
-        <v>0.6296296296296297</v>
+        <v>0.625</v>
       </c>
       <c r="L24">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="M24">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1628,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1636,13 +1642,13 @@
         <v>39</v>
       </c>
       <c r="K25">
-        <v>0.6285714285714286</v>
+        <v>0.6197183098591549</v>
       </c>
       <c r="L25">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="M25">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1654,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1662,13 +1668,13 @@
         <v>40</v>
       </c>
       <c r="K26">
-        <v>0.625</v>
+        <v>0.5918367346938775</v>
       </c>
       <c r="L26">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="M26">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1680,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1688,13 +1694,13 @@
         <v>41</v>
       </c>
       <c r="K27">
-        <v>0.6176470588235294</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L27">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="M27">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1706,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1714,13 +1720,13 @@
         <v>42</v>
       </c>
       <c r="K28">
-        <v>0.6153846153846154</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L28">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="M28">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1732,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1740,13 +1746,13 @@
         <v>43</v>
       </c>
       <c r="K29">
-        <v>0.6057142857142858</v>
+        <v>0.5873015873015873</v>
       </c>
       <c r="L29">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="M29">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1758,7 +1764,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>69</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1766,13 +1772,13 @@
         <v>44</v>
       </c>
       <c r="K30">
-        <v>0.5857142857142857</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L30">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M30">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1784,7 +1790,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1792,13 +1798,13 @@
         <v>45</v>
       </c>
       <c r="K31">
-        <v>0.5769230769230769</v>
+        <v>0.5783132530120482</v>
       </c>
       <c r="L31">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="M31">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1810,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1818,13 +1824,13 @@
         <v>46</v>
       </c>
       <c r="K32">
-        <v>0.5692307692307692</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="L32">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="M32">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1836,7 +1842,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1844,13 +1850,13 @@
         <v>47</v>
       </c>
       <c r="K33">
-        <v>0.5555555555555556</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L33">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M33">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1870,13 +1876,13 @@
         <v>48</v>
       </c>
       <c r="K34">
-        <v>0.5470085470085471</v>
+        <v>0.5614035087719298</v>
       </c>
       <c r="L34">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="M34">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1888,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>53</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1896,13 +1902,13 @@
         <v>49</v>
       </c>
       <c r="K35">
-        <v>0.5294117647058824</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="L35">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="M35">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1914,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1922,13 +1928,13 @@
         <v>50</v>
       </c>
       <c r="K36">
-        <v>0.5131578947368421</v>
+        <v>0.55</v>
       </c>
       <c r="L36">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="M36">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1940,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1948,13 +1954,13 @@
         <v>51</v>
       </c>
       <c r="K37">
-        <v>0.5128205128205128</v>
+        <v>0.5480769230769231</v>
       </c>
       <c r="L37">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="M37">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1966,7 +1972,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>19</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1974,13 +1980,13 @@
         <v>52</v>
       </c>
       <c r="K38">
-        <v>0.5060240963855421</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="L38">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="M38">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1992,7 +1998,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>41</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -2000,13 +2006,13 @@
         <v>53</v>
       </c>
       <c r="K39">
-        <v>0.5</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L39">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M39">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2018,7 +2024,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -2026,13 +2032,13 @@
         <v>54</v>
       </c>
       <c r="K40">
-        <v>0.4918032786885246</v>
+        <v>0.5209580838323353</v>
       </c>
       <c r="L40">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="M40">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2044,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>31</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -2052,13 +2058,13 @@
         <v>55</v>
       </c>
       <c r="K41">
-        <v>0.4850299401197605</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="L41">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="M41">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2070,7 +2076,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>86</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -2078,13 +2084,13 @@
         <v>56</v>
       </c>
       <c r="K42">
-        <v>0.48</v>
+        <v>0.5102040816326531</v>
       </c>
       <c r="L42">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="M42">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2096,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>52</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -2104,13 +2110,13 @@
         <v>57</v>
       </c>
       <c r="K43">
-        <v>0.4586466165413534</v>
+        <v>0.5042735042735043</v>
       </c>
       <c r="L43">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M43">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2122,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>72</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -2130,7 +2136,7 @@
         <v>58</v>
       </c>
       <c r="K44">
-        <v>0.4545454545454545</v>
+        <v>0.5</v>
       </c>
       <c r="L44">
         <v>15</v>
@@ -2148,7 +2154,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -2156,13 +2162,13 @@
         <v>59</v>
       </c>
       <c r="K45">
-        <v>0.45</v>
+        <v>0.4918032786885246</v>
       </c>
       <c r="L45">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M45">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2174,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -2182,13 +2188,13 @@
         <v>60</v>
       </c>
       <c r="K46">
-        <v>0.4307692307692308</v>
+        <v>0.4586466165413534</v>
       </c>
       <c r="L46">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="M46">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2200,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>37</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -2208,13 +2214,13 @@
         <v>61</v>
       </c>
       <c r="K47">
-        <v>0.4285714285714285</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="L47">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M47">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2226,7 +2232,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2234,13 +2240,13 @@
         <v>62</v>
       </c>
       <c r="K48">
-        <v>0.427710843373494</v>
+        <v>0.4461538461538462</v>
       </c>
       <c r="L48">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="M48">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2252,7 +2258,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>95</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2260,7 +2266,7 @@
         <v>63</v>
       </c>
       <c r="K49">
-        <v>0.4210526315789473</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L49">
         <v>16</v>
@@ -2278,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2286,13 +2292,13 @@
         <v>64</v>
       </c>
       <c r="K50">
-        <v>0.4193548387096774</v>
+        <v>0.4197530864197531</v>
       </c>
       <c r="L50">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="M50">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2304,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2312,13 +2318,13 @@
         <v>65</v>
       </c>
       <c r="K51">
-        <v>0.4102564102564102</v>
+        <v>0.4156626506024096</v>
       </c>
       <c r="L51">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="M51">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2330,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>23</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2338,13 +2344,13 @@
         <v>66</v>
       </c>
       <c r="K52">
-        <v>0.4078947368421053</v>
+        <v>0.4146341463414634</v>
       </c>
       <c r="L52">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="M52">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2356,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>45</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2364,13 +2370,13 @@
         <v>67</v>
       </c>
       <c r="K53">
-        <v>0.4</v>
+        <v>0.4130434782608696</v>
       </c>
       <c r="L53">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M53">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2382,7 +2388,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2390,13 +2396,13 @@
         <v>68</v>
       </c>
       <c r="K54">
-        <v>0.3968253968253968</v>
+        <v>0.41</v>
       </c>
       <c r="L54">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="M54">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2408,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>38</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2416,13 +2422,13 @@
         <v>69</v>
       </c>
       <c r="K55">
-        <v>0.3950617283950617</v>
+        <v>0.4032258064516129</v>
       </c>
       <c r="L55">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="M55">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2434,7 +2440,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2442,13 +2448,13 @@
         <v>70</v>
       </c>
       <c r="K56">
-        <v>0.3823529411764706</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="L56">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M56">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2460,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2468,13 +2474,13 @@
         <v>71</v>
       </c>
       <c r="K57">
-        <v>0.3783783783783784</v>
+        <v>0.3834586466165413</v>
       </c>
       <c r="L57">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="M57">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2486,7 +2492,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2494,13 +2500,13 @@
         <v>72</v>
       </c>
       <c r="K58">
-        <v>0.3684210526315789</v>
+        <v>0.375</v>
       </c>
       <c r="L58">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="M58">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2512,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>84</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2520,13 +2526,13 @@
         <v>73</v>
       </c>
       <c r="K59">
-        <v>0.3658536585365854</v>
+        <v>0.3676470588235294</v>
       </c>
       <c r="L59">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="M59">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2538,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2546,13 +2552,13 @@
         <v>74</v>
       </c>
       <c r="K60">
-        <v>0.3553921568627451</v>
+        <v>0.3455882352941176</v>
       </c>
       <c r="L60">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="M60">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2564,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2572,13 +2578,13 @@
         <v>75</v>
       </c>
       <c r="K61">
-        <v>0.3501945525291829</v>
+        <v>0.3424124513618677</v>
       </c>
       <c r="L61">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M61">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2590,7 +2596,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2598,13 +2604,13 @@
         <v>76</v>
       </c>
       <c r="K62">
-        <v>0.35</v>
+        <v>0.3410958904109589</v>
       </c>
       <c r="L62">
-        <v>21</v>
+        <v>249</v>
       </c>
       <c r="M62">
-        <v>21</v>
+        <v>249</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2616,7 +2622,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>39</v>
+        <v>481</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2624,13 +2630,13 @@
         <v>77</v>
       </c>
       <c r="K63">
-        <v>0.3488372093023256</v>
+        <v>0.3404255319148936</v>
       </c>
       <c r="L63">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M63">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2642,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2650,13 +2656,13 @@
         <v>78</v>
       </c>
       <c r="K64">
-        <v>0.3478260869565217</v>
+        <v>0.3366336633663367</v>
       </c>
       <c r="L64">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="M64">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2668,7 +2674,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>30</v>
+        <v>67</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -2676,13 +2682,13 @@
         <v>79</v>
       </c>
       <c r="K65">
-        <v>0.3424657534246575</v>
+        <v>0.3289473684210527</v>
       </c>
       <c r="L65">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="M65">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2694,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>480</v>
+        <v>51</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -2702,13 +2708,13 @@
         <v>80</v>
       </c>
       <c r="K66">
-        <v>0.3260869565217391</v>
+        <v>0.3240740740740741</v>
       </c>
       <c r="L66">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="M66">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2720,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>31</v>
+        <v>73</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -2728,13 +2734,13 @@
         <v>81</v>
       </c>
       <c r="K67">
-        <v>0.3214285714285715</v>
+        <v>0.3194444444444444</v>
       </c>
       <c r="L67">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M67">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2746,7 +2752,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="68" spans="10:17">
@@ -2754,13 +2760,13 @@
         <v>82</v>
       </c>
       <c r="K68">
-        <v>0.3055555555555556</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="L68">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="M68">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2772,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>75</v>
+        <v>38</v>
       </c>
     </row>
     <row r="69" spans="10:17">
@@ -2780,13 +2786,13 @@
         <v>83</v>
       </c>
       <c r="K69">
-        <v>0.2822966507177033</v>
+        <v>0.3063063063063063</v>
       </c>
       <c r="L69">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="M69">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -2798,7 +2804,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>150</v>
+        <v>77</v>
       </c>
     </row>
     <row r="70" spans="10:17">
@@ -2806,13 +2812,13 @@
         <v>84</v>
       </c>
       <c r="K70">
-        <v>0.2805755395683453</v>
+        <v>0.3</v>
       </c>
       <c r="L70">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="M70">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -2824,7 +2830,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>100</v>
+        <v>42</v>
       </c>
     </row>
     <row r="71" spans="10:17">
@@ -2832,13 +2838,13 @@
         <v>85</v>
       </c>
       <c r="K71">
-        <v>0.2738095238095238</v>
+        <v>0.2870813397129187</v>
       </c>
       <c r="L71">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="M71">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -2850,7 +2856,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>61</v>
+        <v>149</v>
       </c>
     </row>
     <row r="72" spans="10:17">
@@ -2858,13 +2864,13 @@
         <v>86</v>
       </c>
       <c r="K72">
-        <v>0.2666666666666667</v>
+        <v>0.2733812949640288</v>
       </c>
       <c r="L72">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="M72">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -2876,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>77</v>
+        <v>101</v>
       </c>
     </row>
     <row r="73" spans="10:17">
@@ -2884,13 +2890,13 @@
         <v>87</v>
       </c>
       <c r="K73">
-        <v>0.2574257425742574</v>
+        <v>0.2649006622516556</v>
       </c>
       <c r="L73">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="M73">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -2902,7 +2908,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>75</v>
+        <v>111</v>
       </c>
     </row>
     <row r="74" spans="10:17">
@@ -2910,13 +2916,13 @@
         <v>88</v>
       </c>
       <c r="K74">
-        <v>0.2572658772874058</v>
+        <v>0.2619047619047619</v>
       </c>
       <c r="L74">
-        <v>239</v>
+        <v>22</v>
       </c>
       <c r="M74">
-        <v>239</v>
+        <v>22</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -2928,7 +2934,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>690</v>
+        <v>62</v>
       </c>
     </row>
     <row r="75" spans="10:17">
@@ -2936,13 +2942,13 @@
         <v>89</v>
       </c>
       <c r="K75">
-        <v>0.25</v>
+        <v>0.2612612612612613</v>
       </c>
       <c r="L75">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="M75">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -2954,7 +2960,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>54</v>
+        <v>82</v>
       </c>
     </row>
     <row r="76" spans="10:17">
@@ -2962,13 +2968,13 @@
         <v>90</v>
       </c>
       <c r="K76">
-        <v>0.25</v>
+        <v>0.2551130247578041</v>
       </c>
       <c r="L76">
-        <v>18</v>
+        <v>237</v>
       </c>
       <c r="M76">
-        <v>18</v>
+        <v>237</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -2980,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>54</v>
+        <v>692</v>
       </c>
     </row>
     <row r="77" spans="10:17">
@@ -2988,13 +2994,13 @@
         <v>91</v>
       </c>
       <c r="K77">
-        <v>0.2450331125827815</v>
+        <v>0.2470588235294118</v>
       </c>
       <c r="L77">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="M77">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -3006,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>114</v>
+        <v>64</v>
       </c>
     </row>
     <row r="78" spans="10:17">
@@ -3014,13 +3020,13 @@
         <v>92</v>
       </c>
       <c r="K78">
-        <v>0.2351097178683386</v>
+        <v>0.2361111111111111</v>
       </c>
       <c r="L78">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="M78">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -3032,7 +3038,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>244</v>
+        <v>55</v>
       </c>
     </row>
     <row r="79" spans="10:17">
@@ -3040,13 +3046,13 @@
         <v>93</v>
       </c>
       <c r="K79">
-        <v>0.2295081967213115</v>
+        <v>0.234375</v>
       </c>
       <c r="L79">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="M79">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -3058,7 +3064,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>94</v>
+        <v>49</v>
       </c>
     </row>
     <row r="80" spans="10:17">
@@ -3066,13 +3072,13 @@
         <v>94</v>
       </c>
       <c r="K80">
-        <v>0.2236842105263158</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="L80">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M80">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -3084,7 +3090,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="81" spans="10:17">
@@ -3092,13 +3098,13 @@
         <v>95</v>
       </c>
       <c r="K81">
-        <v>0.2201834862385321</v>
+        <v>0.2282608695652174</v>
       </c>
       <c r="L81">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M81">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -3110,7 +3116,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="82" spans="10:17">
@@ -3118,13 +3124,13 @@
         <v>96</v>
       </c>
       <c r="K82">
-        <v>0.2173913043478261</v>
+        <v>0.213166144200627</v>
       </c>
       <c r="L82">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="M82">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="N82">
         <v>1</v>
@@ -3136,7 +3142,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>72</v>
+        <v>251</v>
       </c>
     </row>
     <row r="83" spans="10:17">
@@ -3144,13 +3150,13 @@
         <v>97</v>
       </c>
       <c r="K83">
-        <v>0.2162162162162162</v>
+        <v>0.2077922077922078</v>
       </c>
       <c r="L83">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="M83">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N83">
         <v>1</v>
@@ -3162,7 +3168,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>87</v>
+        <v>61</v>
       </c>
     </row>
     <row r="84" spans="10:17">
@@ -3170,25 +3176,25 @@
         <v>98</v>
       </c>
       <c r="K84">
-        <v>0.2142857142857143</v>
+        <v>0.2052980132450331</v>
       </c>
       <c r="L84">
-        <v>24</v>
+        <v>155</v>
       </c>
       <c r="M84">
-        <v>25</v>
+        <v>155</v>
       </c>
       <c r="N84">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O84">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q84">
-        <v>88</v>
+        <v>600</v>
       </c>
     </row>
     <row r="85" spans="10:17">
@@ -3196,13 +3202,13 @@
         <v>99</v>
       </c>
       <c r="K85">
-        <v>0.2132450331125828</v>
+        <v>0.2048192771084337</v>
       </c>
       <c r="L85">
-        <v>161</v>
+        <v>17</v>
       </c>
       <c r="M85">
-        <v>161</v>
+        <v>17</v>
       </c>
       <c r="N85">
         <v>1</v>
@@ -3214,7 +3220,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>594</v>
+        <v>66</v>
       </c>
     </row>
     <row r="86" spans="10:17">
@@ -3222,13 +3228,13 @@
         <v>100</v>
       </c>
       <c r="K86">
-        <v>0.2</v>
+        <v>0.2013422818791946</v>
       </c>
       <c r="L86">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="M86">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="N86">
         <v>1</v>
@@ -3240,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>68</v>
+        <v>119</v>
       </c>
     </row>
     <row r="87" spans="10:17">
@@ -3248,13 +3254,13 @@
         <v>101</v>
       </c>
       <c r="K87">
-        <v>0.1965811965811966</v>
+        <v>0.2</v>
       </c>
       <c r="L87">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M87">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N87">
         <v>1</v>
@@ -3266,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="88" spans="10:17">
@@ -3274,13 +3280,13 @@
         <v>102</v>
       </c>
       <c r="K88">
-        <v>0.1948051948051948</v>
+        <v>0.1946902654867257</v>
       </c>
       <c r="L88">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="M88">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="N88">
         <v>1</v>
@@ -3292,7 +3298,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>62</v>
+        <v>91</v>
       </c>
     </row>
     <row r="89" spans="10:17">
@@ -3300,25 +3306,25 @@
         <v>103</v>
       </c>
       <c r="K89">
-        <v>0.1933418693982074</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="L89">
-        <v>151</v>
+        <v>25</v>
       </c>
       <c r="M89">
-        <v>152</v>
+        <v>25</v>
       </c>
       <c r="N89">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O89">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q89">
-        <v>630</v>
+        <v>105</v>
       </c>
     </row>
     <row r="90" spans="10:17">
@@ -3326,7 +3332,7 @@
         <v>104</v>
       </c>
       <c r="K90">
-        <v>0.19</v>
+        <v>0.1919191919191919</v>
       </c>
       <c r="L90">
         <v>19</v>
@@ -3344,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="91" spans="10:17">
@@ -3352,7 +3358,7 @@
         <v>105</v>
       </c>
       <c r="K91">
-        <v>0.1882352941176471</v>
+        <v>0.186046511627907</v>
       </c>
       <c r="L91">
         <v>16</v>
@@ -3370,7 +3376,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="92" spans="10:17">
@@ -3378,13 +3384,13 @@
         <v>106</v>
       </c>
       <c r="K92">
-        <v>0.1879194630872483</v>
+        <v>0.1841432225063939</v>
       </c>
       <c r="L92">
-        <v>28</v>
+        <v>144</v>
       </c>
       <c r="M92">
-        <v>28</v>
+        <v>144</v>
       </c>
       <c r="N92">
         <v>1</v>
@@ -3396,7 +3402,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>121</v>
+        <v>638</v>
       </c>
     </row>
     <row r="93" spans="10:17">
@@ -3404,25 +3410,25 @@
         <v>107</v>
       </c>
       <c r="K93">
-        <v>0.1783783783783784</v>
+        <v>0.1829268292682927</v>
       </c>
       <c r="L93">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="M93">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="N93">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O93">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q93">
-        <v>304</v>
+        <v>134</v>
       </c>
     </row>
     <row r="94" spans="10:17">
@@ -3430,13 +3436,13 @@
         <v>108</v>
       </c>
       <c r="K94">
-        <v>0.1769230769230769</v>
+        <v>0.180327868852459</v>
       </c>
       <c r="L94">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M94">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N94">
         <v>1</v>
@@ -3448,7 +3454,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="95" spans="10:17">
@@ -3456,25 +3462,25 @@
         <v>109</v>
       </c>
       <c r="K95">
-        <v>0.1739130434782609</v>
+        <v>0.18</v>
       </c>
       <c r="L95">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M95">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N95">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O95">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q95">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="96" spans="10:17">
@@ -3482,13 +3488,13 @@
         <v>110</v>
       </c>
       <c r="K96">
-        <v>0.1585365853658537</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="L96">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="M96">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="N96">
         <v>1</v>
@@ -3500,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>138</v>
+        <v>70</v>
       </c>
     </row>
     <row r="97" spans="10:17">
@@ -3508,13 +3514,13 @@
         <v>111</v>
       </c>
       <c r="K97">
-        <v>0.1581920903954802</v>
+        <v>0.1743119266055046</v>
       </c>
       <c r="L97">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="M97">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="N97">
         <v>1</v>
@@ -3526,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>149</v>
+        <v>90</v>
       </c>
     </row>
     <row r="98" spans="10:17">
@@ -3534,13 +3540,13 @@
         <v>112</v>
       </c>
       <c r="K98">
-        <v>0.1518518518518518</v>
+        <v>0.1709401709401709</v>
       </c>
       <c r="L98">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="M98">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="N98">
         <v>1</v>
@@ -3552,7 +3558,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>229</v>
+        <v>97</v>
       </c>
     </row>
     <row r="99" spans="10:17">
@@ -3560,25 +3566,25 @@
         <v>113</v>
       </c>
       <c r="K99">
-        <v>0.1515151515151515</v>
+        <v>0.1544715447154472</v>
       </c>
       <c r="L99">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="M99">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="N99">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O99">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q99">
-        <v>84</v>
+        <v>312</v>
       </c>
     </row>
     <row r="100" spans="10:17">
@@ -3586,13 +3592,13 @@
         <v>114</v>
       </c>
       <c r="K100">
-        <v>0.1484184914841849</v>
+        <v>0.1533742331288344</v>
       </c>
       <c r="L100">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="M100">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="N100">
         <v>1</v>
@@ -3604,7 +3610,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>350</v>
+        <v>138</v>
       </c>
     </row>
     <row r="101" spans="10:17">
@@ -3612,13 +3618,13 @@
         <v>115</v>
       </c>
       <c r="K101">
-        <v>0.1474358974358974</v>
+        <v>0.1484184914841849</v>
       </c>
       <c r="L101">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="M101">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="N101">
         <v>1</v>
@@ -3630,7 +3636,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>133</v>
+        <v>350</v>
       </c>
     </row>
     <row r="102" spans="10:17">
@@ -3638,13 +3644,13 @@
         <v>116</v>
       </c>
       <c r="K102">
-        <v>0.1472868217054264</v>
+        <v>0.1476014760147601</v>
       </c>
       <c r="L102">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="M102">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="N102">
         <v>1</v>
@@ -3656,7 +3662,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>110</v>
+        <v>231</v>
       </c>
     </row>
     <row r="103" spans="10:17">
@@ -3664,13 +3670,13 @@
         <v>117</v>
       </c>
       <c r="K103">
-        <v>0.1454545454545454</v>
+        <v>0.1472868217054264</v>
       </c>
       <c r="L103">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M103">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N103">
         <v>1</v>
@@ -3682,7 +3688,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>141</v>
+        <v>110</v>
       </c>
     </row>
     <row r="104" spans="10:17">
@@ -3690,25 +3696,25 @@
         <v>118</v>
       </c>
       <c r="K104">
-        <v>0.1428571428571428</v>
+        <v>0.1435643564356436</v>
       </c>
       <c r="L104">
         <v>29</v>
       </c>
       <c r="M104">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N104">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O104">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q104">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="105" spans="10:17">
@@ -3716,25 +3722,25 @@
         <v>119</v>
       </c>
       <c r="K105">
-        <v>0.1381578947368421</v>
+        <v>0.1409090909090909</v>
       </c>
       <c r="L105">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="M105">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="N105">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O105">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q105">
-        <v>131</v>
+        <v>378</v>
       </c>
     </row>
     <row r="106" spans="10:17">
@@ -3742,13 +3748,13 @@
         <v>120</v>
       </c>
       <c r="K106">
-        <v>0.134453781512605</v>
+        <v>0.140893470790378</v>
       </c>
       <c r="L106">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="M106">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="N106">
         <v>1</v>
@@ -3760,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>206</v>
+        <v>250</v>
       </c>
     </row>
     <row r="107" spans="10:17">
@@ -3768,13 +3774,13 @@
         <v>121</v>
       </c>
       <c r="K107">
-        <v>0.127147766323024</v>
+        <v>0.138655462184874</v>
       </c>
       <c r="L107">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="M107">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N107">
         <v>1</v>
@@ -3786,7 +3792,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>254</v>
+        <v>205</v>
       </c>
     </row>
     <row r="108" spans="10:17">
@@ -3794,13 +3800,13 @@
         <v>122</v>
       </c>
       <c r="K108">
-        <v>0.1254612546125461</v>
+        <v>0.1355932203389831</v>
       </c>
       <c r="L108">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M108">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="N108">
         <v>1</v>
@@ -3812,7 +3818,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>237</v>
+        <v>153</v>
       </c>
     </row>
     <row r="109" spans="10:17">
@@ -3820,13 +3826,13 @@
         <v>123</v>
       </c>
       <c r="K109">
-        <v>0.125</v>
+        <v>0.1346153846153846</v>
       </c>
       <c r="L109">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M109">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N109">
         <v>1</v>
@@ -3838,7 +3844,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
     <row r="110" spans="10:17">
@@ -3846,13 +3852,13 @@
         <v>124</v>
       </c>
       <c r="K110">
-        <v>0.1090909090909091</v>
+        <v>0.1272727272727273</v>
       </c>
       <c r="L110">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="M110">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="N110">
         <v>1</v>
@@ -3864,7 +3870,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>392</v>
+        <v>144</v>
       </c>
     </row>
     <row r="111" spans="10:17">
@@ -3872,25 +3878,25 @@
         <v>125</v>
       </c>
       <c r="K111">
-        <v>0.1073985680190931</v>
+        <v>0.1267942583732057</v>
       </c>
       <c r="L111">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="M111">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="N111">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O111">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q111">
-        <v>374</v>
+        <v>365</v>
       </c>
     </row>
     <row r="112" spans="10:17">
@@ -3898,25 +3904,25 @@
         <v>126</v>
       </c>
       <c r="K112">
-        <v>0.09899569583931134</v>
+        <v>0.119047619047619</v>
       </c>
       <c r="L112">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="M112">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="N112">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O112">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q112">
-        <v>628</v>
+        <v>111</v>
       </c>
     </row>
     <row r="113" spans="10:17">
@@ -3924,13 +3930,13 @@
         <v>127</v>
       </c>
       <c r="K113">
-        <v>0.09868421052631579</v>
+        <v>0.1184210526315789</v>
       </c>
       <c r="L113">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="M113">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="N113">
         <v>1</v>
@@ -3942,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>411</v>
+        <v>402</v>
       </c>
     </row>
     <row r="114" spans="10:17">
@@ -3950,13 +3956,13 @@
         <v>128</v>
       </c>
       <c r="K114">
-        <v>0.09815950920245399</v>
+        <v>0.1169354838709677</v>
       </c>
       <c r="L114">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="M114">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="N114">
         <v>1</v>
@@ -3968,7 +3974,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>147</v>
+        <v>219</v>
       </c>
     </row>
     <row r="115" spans="10:17">
@@ -3976,7 +3982,7 @@
         <v>129</v>
       </c>
       <c r="K115">
-        <v>0.09803921568627451</v>
+        <v>0.1145038167938931</v>
       </c>
       <c r="L115">
         <v>15</v>
@@ -3994,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>138</v>
+        <v>116</v>
       </c>
     </row>
     <row r="116" spans="10:17">
@@ -4002,13 +4008,13 @@
         <v>130</v>
       </c>
       <c r="K116">
-        <v>0.09274193548387097</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L116">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M116">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="N116">
         <v>1</v>
@@ -4020,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>225</v>
+        <v>240</v>
       </c>
     </row>
     <row r="117" spans="10:17">
@@ -4028,25 +4034,25 @@
         <v>131</v>
       </c>
       <c r="K117">
-        <v>0.09239130434782608</v>
+        <v>0.08469945355191257</v>
       </c>
       <c r="L117">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="M117">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="N117">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O117">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q117">
-        <v>167</v>
+        <v>335</v>
       </c>
     </row>
     <row r="118" spans="10:17">
@@ -4054,13 +4060,13 @@
         <v>132</v>
       </c>
       <c r="K118">
-        <v>0.07720588235294118</v>
+        <v>0.08173076923076923</v>
       </c>
       <c r="L118">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M118">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N118">
         <v>1</v>
@@ -4072,7 +4078,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>251</v>
+        <v>191</v>
       </c>
     </row>
     <row r="119" spans="10:17">
@@ -4080,25 +4086,25 @@
         <v>133</v>
       </c>
       <c r="K119">
-        <v>0.07633587786259542</v>
+        <v>0.07879656160458452</v>
       </c>
       <c r="L119">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="M119">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="N119">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O119">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q119">
-        <v>363</v>
+        <v>643</v>
       </c>
     </row>
     <row r="120" spans="10:17">
@@ -4106,25 +4112,25 @@
         <v>134</v>
       </c>
       <c r="K120">
-        <v>0.07376283846872082</v>
+        <v>0.07670720299345182</v>
       </c>
       <c r="L120">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M120">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N120">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="O120">
-        <v>0.01000000000000001</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P120" t="b">
         <v>1</v>
       </c>
       <c r="Q120">
-        <v>992</v>
+        <v>987</v>
       </c>
     </row>
     <row r="121" spans="10:17">
@@ -4132,25 +4138,25 @@
         <v>135</v>
       </c>
       <c r="K121">
-        <v>0.06088560885608856</v>
+        <v>0.07592592592592592</v>
       </c>
       <c r="L121">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="M121">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="N121">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O121">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q121">
-        <v>509</v>
+        <v>499</v>
       </c>
     </row>
     <row r="122" spans="10:17">
@@ -4158,13 +4164,13 @@
         <v>136</v>
       </c>
       <c r="K122">
-        <v>0.06010928961748634</v>
+        <v>0.06852791878172589</v>
       </c>
       <c r="L122">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="M122">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="N122">
         <v>1</v>
@@ -4176,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>344</v>
+        <v>367</v>
       </c>
     </row>
     <row r="123" spans="10:17">
@@ -4184,13 +4190,13 @@
         <v>137</v>
       </c>
       <c r="K123">
-        <v>0.05016722408026756</v>
+        <v>0.06575342465753424</v>
       </c>
       <c r="L123">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="M123">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N123">
         <v>1</v>
@@ -4202,7 +4208,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>284</v>
+        <v>341</v>
       </c>
     </row>
     <row r="124" spans="10:17">
@@ -4210,13 +4216,13 @@
         <v>138</v>
       </c>
       <c r="K124">
-        <v>0.04990403071017274</v>
+        <v>0.05569007263922518</v>
       </c>
       <c r="L124">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M124">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N124">
         <v>0.96</v>
@@ -4228,7 +4234,7 @@
         <v>1</v>
       </c>
       <c r="Q124">
-        <v>495</v>
+        <v>390</v>
       </c>
     </row>
     <row r="125" spans="10:17">
@@ -4236,25 +4242,25 @@
         <v>139</v>
       </c>
       <c r="K125">
-        <v>0.04852686308492201</v>
+        <v>0.05514705882352941</v>
       </c>
       <c r="L125">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="M125">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="N125">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O125">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q125">
-        <v>1098</v>
+        <v>257</v>
       </c>
     </row>
     <row r="126" spans="10:17">
@@ -4262,25 +4268,25 @@
         <v>140</v>
       </c>
       <c r="K126">
-        <v>0.04696132596685083</v>
+        <v>0.05067567567567568</v>
       </c>
       <c r="L126">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M126">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N126">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
       <c r="O126">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="P126" t="b">
         <v>1</v>
       </c>
       <c r="Q126">
-        <v>345</v>
+        <v>281</v>
       </c>
     </row>
     <row r="127" spans="10:17">
@@ -4288,25 +4294,25 @@
         <v>141</v>
       </c>
       <c r="K127">
-        <v>0.0387409200968523</v>
+        <v>0.04373177842565597</v>
       </c>
       <c r="L127">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M127">
         <v>17</v>
       </c>
       <c r="N127">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="O127">
-        <v>0.06000000000000005</v>
+        <v>0.12</v>
       </c>
       <c r="P127" t="b">
         <v>1</v>
       </c>
       <c r="Q127">
-        <v>397</v>
+        <v>328</v>
       </c>
     </row>
     <row r="128" spans="10:17">
@@ -4314,25 +4320,77 @@
         <v>142</v>
       </c>
       <c r="K128">
-        <v>0.02099737532808399</v>
+        <v>0.04242424242424243</v>
       </c>
       <c r="L128">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="M128">
+        <v>51</v>
+      </c>
+      <c r="N128">
+        <v>0.96</v>
+      </c>
+      <c r="O128">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P128" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q128">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="129" spans="10:17">
+      <c r="J129" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K129">
+        <v>0.04022988505747126</v>
+      </c>
+      <c r="L129">
         <v>21</v>
       </c>
-      <c r="N128">
-        <v>0.76</v>
-      </c>
-      <c r="O128">
-        <v>0.24</v>
-      </c>
-      <c r="P128" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q128">
-        <v>746</v>
+      <c r="M129">
+        <v>21</v>
+      </c>
+      <c r="N129">
+        <v>1</v>
+      </c>
+      <c r="O129">
+        <v>0</v>
+      </c>
+      <c r="P129" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q129">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="130" spans="10:17">
+      <c r="J130" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K130">
+        <v>0.02362204724409449</v>
+      </c>
+      <c r="L130">
+        <v>18</v>
+      </c>
+      <c r="M130">
+        <v>23</v>
+      </c>
+      <c r="N130">
+        <v>0.78</v>
+      </c>
+      <c r="O130">
+        <v>0.22</v>
+      </c>
+      <c r="P130" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q130">
+        <v>744</v>
       </c>
     </row>
   </sheetData>
